--- a/Income/OTIS_inc.xlsx
+++ b/Income/OTIS_inc.xlsx
@@ -916,16 +916,16 @@
         <v>0.1654</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.1624</v>
+        <v>0.159</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.1604</v>
+        <v>0.157</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.1573</v>
+        <v>0.154</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.1553</v>
+        <v>0.152</v>
       </c>
       <c r="H28" s="0" t="inlineStr">
         <is>
